--- a/paper/数据.xlsx
+++ b/paper/数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16935" windowHeight="13395"/>
+    <workbookView windowWidth="20850" windowHeight="12200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3917,6 +3917,50 @@
           <c:dLbls>
             <c:delete val="1"/>
           </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$B$1:$L$1</c:f>
@@ -4273,13 +4317,14 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
+            <a:sp3d contourW="12700"/>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
@@ -4287,7 +4332,9 @@
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525">
-                <a:noFill/>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -4398,21 +4445,24 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
+            <a:sp3d contourW="12700"/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="triangle"/>
             <c:size val="5"/>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525">
-                <a:noFill/>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -4523,21 +4573,24 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
+            <a:sp3d contourW="12700"/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="square"/>
             <c:size val="5"/>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525">
-                <a:noFill/>
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -4648,22 +4701,26 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="38100" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:srgbClr val="92D050"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
-            <a:sp3d contourW="38100"/>
+            <a:sp3d contourW="12700"/>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
             <c:size val="5"/>
             <c:spPr>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
               <a:ln w="9525">
-                <a:noFill/>
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -5119,8 +5176,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.165892501658925"/>
-          <c:y val="0.111819974480919"/>
+          <c:x val="0.200652838285343"/>
+          <c:y val="0.126466624059828"/>
           <c:w val="0.260672417606724"/>
           <c:h val="0.222479990720334"/>
         </c:manualLayout>
@@ -5205,7 +5262,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -10562,8 +10619,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="14455140" y="5307330"/>
-        <a:ext cx="3266440" cy="2437765"/>
+        <a:off x="13293090" y="5497830"/>
+        <a:ext cx="2980690" cy="2533015"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -10592,8 +10649,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="15539085" y="8401050"/>
-        <a:ext cx="3664585" cy="2867025"/>
+        <a:off x="14262735" y="8706485"/>
+        <a:ext cx="3378835" cy="2974340"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -10605,16 +10662,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>92075</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>143510</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>126365</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>60325</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>1905</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>20955</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>36195</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -10622,8 +10679,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="14813280" y="12093575"/>
-        <a:ext cx="3992245" cy="3681730"/>
+        <a:off x="14812010" y="12038965"/>
+        <a:ext cx="3649345" cy="3821430"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -10652,8 +10709,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="20093940" y="8173085"/>
-        <a:ext cx="3881120" cy="4755515"/>
+        <a:off x="18440400" y="8471535"/>
+        <a:ext cx="3572510" cy="4933315"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -10682,8 +10739,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="13210540" y="1399540"/>
-        <a:ext cx="3324225" cy="2505710"/>
+        <a:off x="12153900" y="1450340"/>
+        <a:ext cx="3047365" cy="2594610"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -10712,8 +10769,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="17096740" y="1391285"/>
-        <a:ext cx="3324225" cy="2505710"/>
+        <a:off x="15706090" y="1442085"/>
+        <a:ext cx="3038475" cy="2594610"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -10726,15 +10783,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>87630</xdr:colOff>
+      <xdr:colOff>101600</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>108585</xdr:rowOff>
+      <xdr:rowOff>113030</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>668655</xdr:colOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>13970</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>42545</xdr:rowOff>
+      <xdr:rowOff>46990</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -10742,8 +10799,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="20890230" y="1994535"/>
-        <a:ext cx="3324225" cy="2505710"/>
+        <a:off x="19170650" y="2068830"/>
+        <a:ext cx="3055620" cy="2600960"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -10756,15 +10813,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>643890</xdr:colOff>
+      <xdr:colOff>218440</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>26035</xdr:rowOff>
+      <xdr:rowOff>31115</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>327660</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>116205</xdr:rowOff>
+      <xdr:rowOff>121285</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -10772,8 +10829,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="20074890" y="4655185"/>
-        <a:ext cx="3798570" cy="3347720"/>
+        <a:off x="18030190" y="4831715"/>
+        <a:ext cx="3470910" cy="3468370"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -10802,8 +10859,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10643235" y="13007975"/>
-        <a:ext cx="4830445" cy="4554855"/>
+        <a:off x="9766935" y="13484225"/>
+        <a:ext cx="4430395" cy="4726305"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11068,18 +11125,18 @@
   <sheetPr/>
   <dimension ref="A1:L78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="AH42" sqref="AH42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
-    <col min="2" max="2" width="10.375" customWidth="1"/>
-    <col min="3" max="3" width="10.375"/>
+    <col min="2" max="2" width="10.3727272727273" customWidth="1"/>
+    <col min="3" max="3" width="10.3727272727273"/>
     <col min="4" max="9" width="11.5"/>
     <col min="10" max="10" width="11.5" customWidth="1"/>
-    <col min="11" max="12" width="12.625"/>
+    <col min="11" max="12" width="12.6272727272727"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12">
@@ -11359,7 +11416,7 @@
         <v>25080.9082</v>
       </c>
       <c r="I10" s="1">
-        <f>TRIMMEAN(I3:I9,2/7)</f>
+        <f t="shared" si="0"/>
         <v>4.1528</v>
       </c>
       <c r="J10" s="1">
@@ -13144,7 +13201,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -13161,7 +13218,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/paper/数据.xlsx
+++ b/paper/数据.xlsx
@@ -1697,8 +1697,375 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="4"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$69</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CMP-ECDSA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$1:$L$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$D$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$71:$L$71</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$D$71:$L$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>7098.473</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14304.445</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26480.153</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44799.776</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>62027.533</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>89516.234</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>113095.792</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>142581.525</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>182822.554</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GG18-ECDSA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$1:$L$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$D$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$47:$L$47</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$D$47:$L$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1691.6166</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4071.3272</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7543.389</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11816.4892</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19244.232</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23864.1444</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31233.4746</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42821.8154</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50186.9642</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GG18-EDDSA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$1:$L$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$D$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$66:$L$66</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$D$66:$L$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>237.048</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>569.8954</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>829.8554</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1224.9062</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1811.2056</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2263.3698</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2839.1318</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3830.1282</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4532.7232</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
           <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>"TB-ECDSA"</c:f>
@@ -1735,41 +2102,42 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$L$1</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$1:$L$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$D$1:$L$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
@@ -1777,270 +2145,43 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$26:$L$26</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$26:$L$26</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$D$26:$L$26</c:f>
               <c:numCache>
                 <c:formatCode>0.000_ </c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>148.57476</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>220.80406</c:v>
+                </c:pt>
                 <c:pt idx="2">
-                  <c:v>148.57476</c:v>
+                  <c:v>357.1506</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>220.80406</c:v>
+                  <c:v>503.7404</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>357.1506</c:v>
+                  <c:v>623.5684</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>503.7404</c:v>
+                  <c:v>798.4252</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>623.5684</c:v>
+                  <c:v>981.8974</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>798.4252</c:v>
+                  <c:v>1188.5856</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>981.8974</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1188.5856</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>1419.2676</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$31</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>GG18-ECDSA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$1:$L$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$47:$L$47</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="2">
-                  <c:v>1691.6166</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4071.3272</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7543.389</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11816.4892</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>19244.232</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>23864.1444</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>31233.4746</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>42821.8154</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>50186.9642</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$66</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>GG18-EDDSA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$1:$L$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$66:$L$66</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="2">
-                  <c:v>237.048</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>569.8954</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>829.8554</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1224.9062</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1811.2056</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2263.3698</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2839.1318</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3830.1282</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4532.7232</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2049,7 +2190,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$A$75</c:f>
@@ -2087,41 +2228,42 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$L$1</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$1:$L$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$D$1:$L$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
@@ -2129,162 +2271,48 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$77:$L$77</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$77:$L$77</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$D$77:$L$77</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.317</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.131</c:v>
+                </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.317</c:v>
+                  <c:v>10.467</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.131</c:v>
+                  <c:v>13.42</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.467</c:v>
+                  <c:v>20.238</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.42</c:v>
+                  <c:v>28.151</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20.238</c:v>
+                  <c:v>35.904</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>28.151</c:v>
+                  <c:v>50.202</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>35.904</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>50.202</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>58.702</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$69</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>CMP-ECDSA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$1:$L$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$71:$L$71</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="2">
-                  <c:v>7098.473</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>14304.445</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>26480.153</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44799.776</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>62027.533</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>89516.234</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>113095.792</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>142581.525</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>182822.554</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2502,10 +2530,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.165944540727903"/>
-          <c:y val="0.111852160622482"/>
-          <c:w val="0.260687463893703"/>
-          <c:h val="0.13366680561345"/>
+          <c:x val="0.165943412601979"/>
+          <c:y val="0.111932773109244"/>
+          <c:w val="0.260718625238674"/>
+          <c:h val="0.13546218487395"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -4303,136 +4331,8 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>"TB-ECDSA"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>TB-ECDSA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="12700" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d contourW="12700"/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$B$1:$L$1</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Sheet1!$D$1:$L$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$B$26:$L$26</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Sheet1!$D$26:$L$26</c:f>
-              <c:numCache>
-                <c:formatCode>0.000_ </c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>148.57476</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>220.80406</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>357.1506</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>503.7404</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>623.5684</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>798.4252</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>981.8974</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1188.5856</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1419.2676</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$A$31</c:f>
@@ -4560,7 +4460,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$A$66</c:f>
@@ -4680,6 +4580,136 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>4532.7232</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"TB-ECDSA"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TB-ECDSA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d contourW="12700"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$1:$L$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$D$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$26:$L$26</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$D$26:$L$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.000_ </c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>148.57476</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>220.80406</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>357.1506</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>503.7404</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>623.5684</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>798.4252</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>981.8974</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1188.5856</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1419.2676</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10662,16 +10692,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>143510</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>126365</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>519430</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>116205</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>20955</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>36195</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>396875</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>26035</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -10679,7 +10709,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="14812010" y="12038965"/>
+        <a:off x="14559280" y="11851005"/>
         <a:ext cx="3649345" cy="3821430"/>
       </xdr:xfrm>
       <a:graphic>
@@ -11125,8 +11155,8 @@
   <sheetPr/>
   <dimension ref="A1:L78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="AH42" sqref="AH42"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="S21" workbookViewId="0">
+      <selection activeCell="AG43" sqref="AG43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/paper/数据.xlsx
+++ b/paper/数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20850" windowHeight="12200"/>
+    <workbookView windowWidth="20310" windowHeight="17775"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -847,115 +847,6 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>签名者初始化</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$1:$L$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$10:$L$10</c:f>
-              <c:numCache>
-                <c:formatCode>0.000_ </c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="2">
-                  <c:v>5772.319</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.615</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>17150.0838</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.8866</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>25080.9082</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.1528</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>34697.5738</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.3586</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>45148.9088</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
@@ -1076,6 +967,142 @@
         <c:smooth val="1"/>
         <c:axId val="153697720"/>
         <c:axId val="970987288"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>签名者初始化</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:dLbls>
+                  <c:delete val="1"/>
+                </c:dLbls>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref/>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$1:$L$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>20</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$10:$L$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.000_ </c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="2">
+                        <c:v>5772.319</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1.615</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>17150.0838</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2.8866</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>25080.9082</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>4.1528</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>34697.5738</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>6.3586</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>45148.9088</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="1"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
       </c:lineChart>
       <c:catAx>
         <c:axId val="153697720"/>
@@ -1355,6 +1382,739 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.171227134146341"/>
+          <c:y val="0.0709822544363909"/>
+          <c:w val="0.670236280487805"/>
+          <c:h val="0.722669332666833"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>签名者初始化</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$N$2:$R$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$4:$R$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.772319</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.1500838</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.0809082</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.6975738</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45.1489088</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="153697720"/>
+        <c:axId val="970987288"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="153697720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr altLang="en-US"/>
+                  <a:t>签名者数量</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>(t)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.406047785423754"/>
+              <c:y val="0.889115764820192"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="970987288"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="970987288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr altLang="en-US"/>
+                  <a:t>耗时</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>(s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.0183147693044842"/>
+              <c:y val="0.309754675504474"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.00_);[Red]\(#,##0.00\)" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="153697720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:externalData r:id="rId1">
+    <c:autoUpdate val="0"/>
+  </c:externalData>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.171227134146341"/>
+          <c:y val="0.0709822544363909"/>
+          <c:w val="0.670236280487805"/>
+          <c:h val="0.722669332666833"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"接收者初始化"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>接收者初始化</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d contourW="12700"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$N$2:$R$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$5:$R$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.000_ </c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.68924</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.21866</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5576</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8794</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.7026</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="153697720"/>
+        <c:axId val="970987288"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="153697720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr altLang="en-US"/>
+                  <a:t>签名者数量</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>(t)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.406047785423754"/>
+              <c:y val="0.889115764820192"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="970987288"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="970987288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr altLang="en-US"/>
+                  <a:t>耗时</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>(ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.0183147693044842"/>
+              <c:y val="0.309754675504474"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.00_);[Red]\(#,##0.00\)" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="153697720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:externalData r:id="rId1">
+    <c:autoUpdate val="0"/>
+  </c:externalData>
 </c:chartSpace>
 </file>
 
@@ -3137,8 +3897,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.171227134146341"/>
-          <c:y val="0.0709822544363909"/>
+          <c:x val="0.140170161045275"/>
+          <c:y val="0.0359451771399017"/>
           <c:w val="0.670236280487805"/>
           <c:h val="0.722669332666833"/>
         </c:manualLayout>
@@ -3923,13 +4683,14 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
+            <a:sp3d contourW="12700"/>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
@@ -3937,7 +4698,9 @@
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525">
-                <a:noFill/>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -3945,87 +4708,44 @@
           <c:dLbls>
             <c:delete val="1"/>
           </c:dLbls>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$L$1</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$1:$L$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$D$1:$L$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
@@ -4033,35 +4753,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$26:$L$26</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$26:$L$26</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$D$26:$L$26</c:f>
               <c:numCache>
                 <c:formatCode>0.000_ </c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>148.57476</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>220.80406</c:v>
+                </c:pt>
                 <c:pt idx="2">
-                  <c:v>148.57476</c:v>
+                  <c:v>357.1506</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>220.80406</c:v>
+                  <c:v>503.7404</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>357.1506</c:v>
+                  <c:v>623.5684</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>503.7404</c:v>
+                  <c:v>798.4252</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>623.5684</c:v>
+                  <c:v>981.8974</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>798.4252</c:v>
+                  <c:v>1188.5856</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>981.8974</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1188.5856</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>1419.2676</c:v>
                 </c:pt>
               </c:numCache>
@@ -4176,15 +4903,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -5758,6 +6476,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -6583,6 +7381,1016 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="10028">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst/>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="90200"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="10028">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst/>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="90200"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="10028">
   <cs:axisTitle>
@@ -10632,16 +12440,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>510540</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>163830</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>386080</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>60325</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>347980</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>29845</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>423545</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>97790</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -10649,8 +12457,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="13293090" y="5497830"/>
-        <a:ext cx="2980690" cy="2533015"/>
+        <a:off x="11587480" y="3489325"/>
+        <a:ext cx="3456940" cy="2437765"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -10679,8 +12487,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="14262735" y="8706485"/>
-        <a:ext cx="3378835" cy="2974340"/>
+        <a:off x="16405860" y="8401050"/>
+        <a:ext cx="3664585" cy="2867025"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -10709,8 +12517,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="14559280" y="11851005"/>
-        <a:ext cx="3649345" cy="3821430"/>
+        <a:off x="16702405" y="11431905"/>
+        <a:ext cx="3992245" cy="3681730"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -10739,8 +12547,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="18440400" y="8471535"/>
-        <a:ext cx="3572510" cy="4933315"/>
+        <a:off x="20960715" y="8173085"/>
+        <a:ext cx="3881120" cy="4755515"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -10752,16 +12560,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>637540</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>27940</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>386080</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>55880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>532765</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>462280</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>161290</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -10769,8 +12577,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="12153900" y="1450340"/>
-        <a:ext cx="3047365" cy="2594610"/>
+        <a:off x="16569055" y="5199380"/>
+        <a:ext cx="4191000" cy="2505710"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -10783,15 +12591,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>408940</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>19685</xdr:rowOff>
+      <xdr:colOff>644525</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>64135</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>304165</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>125095</xdr:rowOff>
+      <xdr:colOff>539750</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>169545</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -10799,8 +12607,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="15706090" y="1442085"/>
-        <a:ext cx="3038475" cy="2594610"/>
+        <a:off x="18199100" y="2121535"/>
+        <a:ext cx="3324225" cy="2505710"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -10829,8 +12637,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="19170650" y="2068830"/>
-        <a:ext cx="3055620" cy="2600960"/>
+        <a:off x="21770975" y="1998980"/>
+        <a:ext cx="3341370" cy="2505710"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -10859,8 +12667,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="18030190" y="4831715"/>
-        <a:ext cx="3470910" cy="3468370"/>
+        <a:off x="20516215" y="4660265"/>
+        <a:ext cx="3756660" cy="3347720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -10889,12 +12697,72 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9766935" y="13484225"/>
-        <a:ext cx="4430395" cy="4726305"/>
+        <a:off x="10643235" y="13007975"/>
+        <a:ext cx="5697220" cy="4554855"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>611505</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>23495</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>26035</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>1905</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="图表 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="11812905" y="6538595"/>
+        <a:ext cx="3710305" cy="2893060"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>24130</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>92710</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>610235</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>71120</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="图表 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="13768705" y="1635760"/>
+        <a:ext cx="3710305" cy="2893060"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -11153,20 +13021,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L78"/>
+  <dimension ref="A1:R78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="S21" workbookViewId="0">
-      <selection activeCell="AG43" sqref="AG43"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AG30" sqref="AG30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
-    <col min="2" max="2" width="10.3727272727273" customWidth="1"/>
-    <col min="3" max="3" width="10.3727272727273"/>
+    <col min="2" max="2" width="10.375" customWidth="1"/>
+    <col min="3" max="3" width="10.375"/>
     <col min="4" max="9" width="11.5"/>
     <col min="10" max="10" width="11.5" customWidth="1"/>
-    <col min="11" max="12" width="12.6272727272727"/>
+    <col min="11" max="12" width="12.625"/>
+    <col min="14" max="14" width="10.375" customWidth="1"/>
+    <col min="15" max="18" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12">
@@ -11204,12 +13074,27 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>0</v>
       </c>
+      <c r="N2">
+        <v>4</v>
+      </c>
+      <c r="O2">
+        <v>8</v>
+      </c>
+      <c r="P2">
+        <v>12</v>
+      </c>
+      <c r="Q2">
+        <v>16</v>
+      </c>
+      <c r="R2">
+        <v>20</v>
+      </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:18">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -11240,8 +13125,23 @@
       <c r="L3">
         <v>37241.182</v>
       </c>
+      <c r="N3" s="1">
+        <v>5772.319</v>
+      </c>
+      <c r="O3" s="1">
+        <v>17150.0838</v>
+      </c>
+      <c r="P3" s="1">
+        <v>25080.9082</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>34697.5738</v>
+      </c>
+      <c r="R3" s="1">
+        <v>45148.9088</v>
+      </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:18">
       <c r="A4" s="2"/>
       <c r="D4">
         <v>678.733</v>
@@ -11270,8 +13170,28 @@
       <c r="L4">
         <v>50113.783</v>
       </c>
+      <c r="N4">
+        <f>N3/1000</f>
+        <v>5.772319</v>
+      </c>
+      <c r="O4">
+        <f>O3/1000</f>
+        <v>17.1500838</v>
+      </c>
+      <c r="P4">
+        <f>P3/1000</f>
+        <v>25.0809082</v>
+      </c>
+      <c r="Q4">
+        <f>Q3/1000</f>
+        <v>34.6975738</v>
+      </c>
+      <c r="R4">
+        <f>R3/1000</f>
+        <v>45.1489088</v>
+      </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:18">
       <c r="A5" s="2"/>
       <c r="D5">
         <v>5399.312</v>
@@ -11299,6 +13219,21 @@
       </c>
       <c r="L5">
         <v>47782.786</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0.68924</v>
+      </c>
+      <c r="O5" s="1">
+        <v>1.21866</v>
+      </c>
+      <c r="P5" s="1">
+        <v>1.5576</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>1.8794</v>
+      </c>
+      <c r="R5" s="1">
+        <v>2.7026</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -13231,7 +15166,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -13248,7 +15183,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/paper/数据.xlsx
+++ b/paper/数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20310" windowHeight="17775"/>
+    <workbookView windowHeight="17775" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,8 +28,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
   <si>
     <t>TB-ECDSA</t>
   </si>
@@ -78,17 +100,27 @@
   <si>
     <t>FROST</t>
   </si>
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>字数</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.000_ "/>
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="177" formatCode="0.000_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -699,11 +731,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -712,7 +747,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
@@ -2115,6 +2150,947 @@
   <c:externalData r:id="rId1">
     <c:autoUpdate val="0"/>
   </c:externalData>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>字数</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$1:$J$1</c:f>
+              <c:numCache>
+                <c:formatCode>m"月"d"日";@</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45354</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45359</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45360</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45363</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45364</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45367</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45368</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45369</c:v>
+                </c:pt>
+                <c:pt idx="8" c:formatCode="m&quot;月&quot;d&quot;日&quot;;@">
+                  <c:v>45370</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$J$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6796</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7412</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10259</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11229</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13043</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17417</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24714</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31792</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="246"/>
+        <c:overlap val="-28"/>
+        <c:axId val="425333112"/>
+        <c:axId val="62172167"/>
+      </c:barChart>
+      <c:dateAx>
+        <c:axId val="425333112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="62172167"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="62172167"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="90200"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="425333112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smooth"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>字数</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$7:$Y$7</c:f>
+              <c:numCache>
+                <c:formatCode>m"月"d"日";@</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>45354</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45355</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45356</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45357</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45358</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45359</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45360</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45361</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45362</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45363</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45364</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45365</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45366</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45367</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45368</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45369</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45370</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45371</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45372</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45373</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45374</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45375</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45376</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45377</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$8:$Y$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>999.999999997592</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2159.19999999759</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3318.39999999759</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4477.59999999759</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5636.79999999759</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6795.99999999759</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7412</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8361</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9310</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10259</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11229.0000000008</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11833.6666666674</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12438.3333333341</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13043.0000000008</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17417</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>24714</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>31792</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$7:$Y$7</c:f>
+              <c:numCache>
+                <c:formatCode>m"月"d"日";@</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>45354</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45355</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45356</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45357</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45358</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45359</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45360</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45361</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45362</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45363</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45364</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45365</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45366</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45367</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45368</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45369</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45370</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45371</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45372</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45373</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45374</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45375</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45376</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45377</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$9:$Y$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1482.59340659028</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2443.58424908166</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3404.57509157304</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4365.56593406442</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5326.5567765558</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6287.54761904718</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7248.53846153856</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8209.52930402994</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9170.52014652132</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10131.5109890127</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11092.5018315041</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12053.4926739955</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13014.4835164868</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13975.4743589782</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14936.4652014696</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15897.456043961</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16858.4468864524</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17819.4377289437</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18780.4285714351</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19741.4194139265</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20702.4102564179</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21663.4010989092</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22624.3919414006</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23585.382783892</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="434010124"/>
+        <c:axId val="397022447"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="434010124"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="90200"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="m&quot;月&quot;d&quot;日&quot;;@" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="397022447"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="397022447"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="90200"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="434010124"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -6556,6 +7532,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -8372,6 +9428,1053 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="10001">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+      <a:effectLst/>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="90200"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="10190">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst/>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="90200"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -12771,6 +14874,71 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>568325</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>31115</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="12769850" y="2794000"/>
+        <a:ext cx="4206875" cy="3580765"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>92075</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>277495</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>41275</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="4264025" y="3917950"/>
+        <a:ext cx="6843395" cy="4352925"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="WPS">
   <a:themeElements>
@@ -13023,7 +15191,7 @@
   <sheetPr/>
   <dimension ref="A1:R78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="N1" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="N5" workbookViewId="0">
       <selection activeCell="AG30" sqref="AG30"/>
     </sheetView>
   </sheetViews>
@@ -13095,7 +15263,7 @@
       </c>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D3">
@@ -13125,24 +15293,24 @@
       <c r="L3">
         <v>37241.182</v>
       </c>
-      <c r="N3" s="1">
+      <c r="N3" s="2">
         <v>5772.319</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O3" s="2">
         <v>17150.0838</v>
       </c>
-      <c r="P3" s="1">
+      <c r="P3" s="2">
         <v>25080.9082</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="Q3" s="2">
         <v>34697.5738</v>
       </c>
-      <c r="R3" s="1">
+      <c r="R3" s="2">
         <v>45148.9088</v>
       </c>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" s="2"/>
+      <c r="A4" s="3"/>
       <c r="D4">
         <v>678.733</v>
       </c>
@@ -13192,7 +15360,7 @@
       </c>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="2"/>
+      <c r="A5" s="3"/>
       <c r="D5">
         <v>5399.312</v>
       </c>
@@ -13220,24 +15388,24 @@
       <c r="L5">
         <v>47782.786</v>
       </c>
-      <c r="N5" s="1">
+      <c r="N5" s="2">
         <v>0.68924</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5" s="2">
         <v>1.21866</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P5" s="2">
         <v>1.5576</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="Q5" s="2">
         <v>1.8794</v>
       </c>
-      <c r="R5" s="1">
+      <c r="R5" s="2">
         <v>2.7026</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="2"/>
+      <c r="A6" s="3"/>
       <c r="D6">
         <v>5583.195</v>
       </c>
@@ -13267,7 +15435,7 @@
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="2"/>
+      <c r="A7" s="3"/>
       <c r="D7">
         <v>9823.044</v>
       </c>
@@ -13297,7 +15465,7 @@
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="2"/>
+      <c r="A8" s="3"/>
       <c r="D8">
         <v>3672.935</v>
       </c>
@@ -13327,7 +15495,7 @@
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="3"/>
+      <c r="A9" s="4"/>
       <c r="D9">
         <v>7477.126</v>
       </c>
@@ -13356,49 +15524,49 @@
         <v>58343.828</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:12">
-      <c r="A10" s="4" t="s">
+    <row r="10" s="2" customFormat="1" spans="1:12">
+      <c r="A10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="2">
         <f>TRIMMEAN(D3:D9,2/7)</f>
         <v>5772.319</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="2">
         <f>TRIMMEAN(E3:E9,2/7)</f>
         <v>1.615</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="2">
         <f>TRIMMEAN(F3:F9,2/7)</f>
         <v>17150.0838</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="2">
         <f t="shared" ref="G10:L10" si="0">TRIMMEAN(G3:G9,2/7)</f>
         <v>2.8866</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="2">
         <f t="shared" si="0"/>
         <v>25080.9082</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="2">
         <f t="shared" si="0"/>
         <v>4.1528</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="2">
         <f t="shared" si="0"/>
         <v>34697.5738</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="2">
         <f t="shared" si="0"/>
         <v>6.3586</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10" s="2">
         <f t="shared" si="0"/>
         <v>45148.9088</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D11">
@@ -13430,7 +15598,7 @@
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="3"/>
+      <c r="A12" s="4"/>
       <c r="D12">
         <v>0.3371</v>
       </c>
@@ -13460,7 +15628,7 @@
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="3"/>
+      <c r="A13" s="4"/>
       <c r="D13">
         <v>0.2066</v>
       </c>
@@ -13490,7 +15658,7 @@
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="3"/>
+      <c r="A14" s="4"/>
       <c r="D14">
         <v>1.1273</v>
       </c>
@@ -13520,7 +15688,7 @@
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="3"/>
+      <c r="A15" s="4"/>
       <c r="D15">
         <v>0.3752</v>
       </c>
@@ -13550,7 +15718,7 @@
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="3"/>
+      <c r="A16" s="4"/>
       <c r="D16">
         <v>0.5525</v>
       </c>
@@ -13580,7 +15748,7 @@
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="3"/>
+      <c r="A17" s="4"/>
       <c r="D17">
         <v>1.0541</v>
       </c>
@@ -13609,49 +15777,49 @@
         <v>1.995</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" spans="1:12">
-      <c r="A18" s="4" t="s">
+    <row r="18" s="2" customFormat="1" spans="1:12">
+      <c r="A18" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="2">
         <f>TRIMMEAN(D11:D17,2/7)</f>
         <v>0.68924</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="2">
         <f>TRIMMEAN(E11:E17,2/7)</f>
         <v>0.9232</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="2">
         <f t="shared" ref="F18:L18" si="1">TRIMMEAN(F11:F17,2/7)</f>
         <v>1.21866</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="2">
         <f t="shared" si="1"/>
         <v>1.4072</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18" s="2">
         <f t="shared" si="1"/>
         <v>1.5576</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18" s="2">
         <f t="shared" si="1"/>
         <v>1.7124</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18" s="2">
         <f t="shared" si="1"/>
         <v>1.8794</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18" s="2">
         <f t="shared" si="1"/>
         <v>2.157</v>
       </c>
-      <c r="L18" s="1">
+      <c r="L18" s="2">
         <f t="shared" si="1"/>
         <v>2.7026</v>
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D19">
@@ -13683,7 +15851,7 @@
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="3"/>
+      <c r="A20" s="4"/>
       <c r="D20">
         <v>135.6345</v>
       </c>
@@ -13857,43 +16025,43 @@
         <v>1386.496</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" spans="1:12">
-      <c r="A26" s="4" t="s">
+    <row r="26" s="2" customFormat="1" spans="1:12">
+      <c r="A26" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="2">
         <f>TRIMMEAN(D19:D25,2/7)</f>
         <v>148.57476</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="2">
         <f t="shared" ref="E26:L26" si="2">TRIMMEAN(E19:E25,2/7)</f>
         <v>220.80406</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="2">
         <f t="shared" si="2"/>
         <v>357.1506</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="2">
         <f t="shared" si="2"/>
         <v>503.7404</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H26" s="2">
         <f t="shared" si="2"/>
         <v>623.5684</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I26" s="2">
         <f t="shared" si="2"/>
         <v>798.4252</v>
       </c>
-      <c r="J26" s="1">
+      <c r="J26" s="2">
         <f t="shared" si="2"/>
         <v>981.8974</v>
       </c>
-      <c r="K26" s="1">
+      <c r="K26" s="2">
         <f t="shared" si="2"/>
         <v>1188.5856</v>
       </c>
-      <c r="L26" s="1">
+      <c r="L26" s="2">
         <f t="shared" si="2"/>
         <v>1419.2676</v>
       </c>
@@ -13904,7 +16072,7 @@
       </c>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D32">
@@ -13936,7 +16104,7 @@
       </c>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="2"/>
+      <c r="A33" s="3"/>
       <c r="D33">
         <v>6524.519</v>
       </c>
@@ -13966,7 +16134,7 @@
       </c>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="2"/>
+      <c r="A34" s="3"/>
       <c r="D34">
         <v>6657.122</v>
       </c>
@@ -13996,7 +16164,7 @@
       </c>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="2"/>
+      <c r="A35" s="3"/>
       <c r="D35">
         <v>6410.16</v>
       </c>
@@ -14026,7 +16194,7 @@
       </c>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="2"/>
+      <c r="A36" s="3"/>
       <c r="D36">
         <v>6310.398</v>
       </c>
@@ -14056,7 +16224,7 @@
       </c>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="2"/>
+      <c r="A37" s="3"/>
       <c r="D37">
         <v>6656.237</v>
       </c>
@@ -14118,45 +16286,45 @@
       <c r="A39" t="s">
         <v>8</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39" s="6">
         <f t="shared" ref="D39:L39" si="3">TRIMMEAN(D32:D38,2/7)</f>
         <v>6551.0288</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E39" s="6">
         <f t="shared" si="3"/>
         <v>13881.7824</v>
       </c>
-      <c r="F39" s="5">
+      <c r="F39" s="6">
         <f t="shared" si="3"/>
         <v>24229.5408</v>
       </c>
-      <c r="G39" s="5">
+      <c r="G39" s="6">
         <f t="shared" si="3"/>
         <v>36245.27</v>
       </c>
-      <c r="H39" s="5">
+      <c r="H39" s="6">
         <f t="shared" si="3"/>
         <v>51682.49</v>
       </c>
-      <c r="I39" s="5">
+      <c r="I39" s="6">
         <f t="shared" si="3"/>
         <v>70075.2124</v>
       </c>
-      <c r="J39" s="5">
+      <c r="J39" s="6">
         <f t="shared" si="3"/>
         <v>89775.416</v>
       </c>
-      <c r="K39" s="5">
+      <c r="K39" s="6">
         <f t="shared" si="3"/>
         <v>118848.44</v>
       </c>
-      <c r="L39" s="5">
+      <c r="L39" s="6">
         <f t="shared" si="3"/>
         <v>141302.8776</v>
       </c>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D40">
@@ -14188,7 +16356,7 @@
       </c>
     </row>
     <row r="41" spans="1:12">
-      <c r="A41" s="2"/>
+      <c r="A41" s="3"/>
       <c r="D41">
         <v>1736.493</v>
       </c>
@@ -14218,7 +16386,7 @@
       </c>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42" s="2"/>
+      <c r="A42" s="3"/>
       <c r="D42">
         <v>1725.56</v>
       </c>
@@ -14248,7 +16416,7 @@
       </c>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="2"/>
+      <c r="A43" s="3"/>
       <c r="D43">
         <v>1605.783</v>
       </c>
@@ -14368,39 +16536,39 @@
       <c r="A47" t="s">
         <v>9</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D47" s="6">
         <f>TRIMMEAN(D40:D46,2/7)</f>
         <v>1691.6166</v>
       </c>
-      <c r="E47" s="5">
+      <c r="E47" s="6">
         <f t="shared" ref="E47:L47" si="4">TRIMMEAN(E40:E46,2/7)</f>
         <v>4071.3272</v>
       </c>
-      <c r="F47" s="5">
+      <c r="F47" s="6">
         <f t="shared" si="4"/>
         <v>7543.389</v>
       </c>
-      <c r="G47" s="5">
+      <c r="G47" s="6">
         <f t="shared" si="4"/>
         <v>11816.4892</v>
       </c>
-      <c r="H47" s="5">
+      <c r="H47" s="6">
         <f t="shared" si="4"/>
         <v>19244.232</v>
       </c>
-      <c r="I47" s="5">
+      <c r="I47" s="6">
         <f t="shared" si="4"/>
         <v>23864.1444</v>
       </c>
-      <c r="J47" s="5">
+      <c r="J47" s="6">
         <f t="shared" si="4"/>
         <v>31233.4746</v>
       </c>
-      <c r="K47" s="5">
+      <c r="K47" s="6">
         <f t="shared" si="4"/>
         <v>42821.8154</v>
       </c>
-      <c r="L47" s="5">
+      <c r="L47" s="6">
         <f t="shared" si="4"/>
         <v>50186.9642</v>
       </c>
@@ -14411,7 +16579,7 @@
       </c>
     </row>
     <row r="51" spans="1:12">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D51">
@@ -14443,7 +16611,7 @@
       </c>
     </row>
     <row r="52" spans="1:12">
-      <c r="A52" s="2"/>
+      <c r="A52" s="3"/>
       <c r="D52">
         <v>583.573</v>
       </c>
@@ -14473,7 +16641,7 @@
       </c>
     </row>
     <row r="53" spans="1:12">
-      <c r="A53" s="2"/>
+      <c r="A53" s="3"/>
       <c r="D53">
         <v>576.043</v>
       </c>
@@ -14532,7 +16700,7 @@
       </c>
     </row>
     <row r="55" spans="1:12">
-      <c r="A55" s="2"/>
+      <c r="A55" s="3"/>
       <c r="D55">
         <v>724.465</v>
       </c>
@@ -14562,7 +16730,7 @@
       </c>
     </row>
     <row r="56" spans="1:12">
-      <c r="A56" s="2"/>
+      <c r="A56" s="3"/>
       <c r="D56">
         <v>632.332</v>
       </c>
@@ -14621,46 +16789,46 @@
       </c>
     </row>
     <row r="58" spans="1:12">
-      <c r="A58" s="2"/>
-      <c r="D58" s="5">
+      <c r="A58" s="3"/>
+      <c r="D58" s="6">
         <f>TRIMMEAN(D51:D57,2/7)</f>
         <v>648.8204</v>
       </c>
-      <c r="E58" s="5">
+      <c r="E58" s="6">
         <f t="shared" ref="E58:L58" si="5">TRIMMEAN(E51:E57,2/7)</f>
         <v>1802.2496</v>
       </c>
-      <c r="F58" s="5">
+      <c r="F58" s="6">
         <f t="shared" si="5"/>
         <v>3946.7406</v>
       </c>
-      <c r="G58" s="5">
+      <c r="G58" s="6">
         <f t="shared" si="5"/>
         <v>6777.8546</v>
       </c>
-      <c r="H58" s="5">
+      <c r="H58" s="6">
         <f t="shared" si="5"/>
         <v>11082.1174</v>
       </c>
-      <c r="I58" s="5">
+      <c r="I58" s="6">
         <f t="shared" si="5"/>
         <v>17269.9112</v>
       </c>
-      <c r="J58" s="5">
+      <c r="J58" s="6">
         <f t="shared" si="5"/>
         <v>25652.5848</v>
       </c>
-      <c r="K58" s="5">
+      <c r="K58" s="6">
         <f t="shared" si="5"/>
         <v>35416.6584</v>
       </c>
-      <c r="L58" s="5">
+      <c r="L58" s="6">
         <f t="shared" si="5"/>
         <v>52330.7224</v>
       </c>
     </row>
     <row r="59" spans="1:12">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D59">
@@ -14721,7 +16889,7 @@
       </c>
     </row>
     <row r="61" spans="1:12">
-      <c r="A61" s="2"/>
+      <c r="A61" s="3"/>
       <c r="D61">
         <v>334.056</v>
       </c>
@@ -14751,7 +16919,7 @@
       </c>
     </row>
     <row r="62" spans="1:12">
-      <c r="A62" s="2"/>
+      <c r="A62" s="3"/>
       <c r="D62">
         <v>243.747</v>
       </c>
@@ -14781,7 +16949,7 @@
       </c>
     </row>
     <row r="63" spans="1:12">
-      <c r="A63" s="2"/>
+      <c r="A63" s="3"/>
       <c r="D63">
         <v>202.804</v>
       </c>
@@ -14872,39 +17040,39 @@
       <c r="A66" t="s">
         <v>10</v>
       </c>
-      <c r="D66" s="5">
+      <c r="D66" s="6">
         <f>TRIMMEAN(D59:D65,2/7)</f>
         <v>237.048</v>
       </c>
-      <c r="E66" s="5">
+      <c r="E66" s="6">
         <f t="shared" ref="E66:L66" si="6">TRIMMEAN(E59:E65,2/7)</f>
         <v>569.8954</v>
       </c>
-      <c r="F66" s="5">
+      <c r="F66" s="6">
         <f t="shared" si="6"/>
         <v>829.8554</v>
       </c>
-      <c r="G66" s="5">
+      <c r="G66" s="6">
         <f t="shared" si="6"/>
         <v>1224.9062</v>
       </c>
-      <c r="H66" s="5">
+      <c r="H66" s="6">
         <f t="shared" si="6"/>
         <v>1811.2056</v>
       </c>
-      <c r="I66" s="5">
+      <c r="I66" s="6">
         <f t="shared" si="6"/>
         <v>2263.3698</v>
       </c>
-      <c r="J66" s="5">
+      <c r="J66" s="6">
         <f t="shared" si="6"/>
         <v>2839.1318</v>
       </c>
-      <c r="K66" s="5">
+      <c r="K66" s="6">
         <f t="shared" si="6"/>
         <v>3830.1282</v>
       </c>
-      <c r="L66" s="5">
+      <c r="L66" s="6">
         <f t="shared" si="6"/>
         <v>4532.7232</v>
       </c>
@@ -15115,7 +17283,7 @@
       </c>
     </row>
     <row r="77" spans="1:12">
-      <c r="A77" s="2" t="s">
+      <c r="A77" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D77">
@@ -15147,7 +17315,7 @@
       </c>
     </row>
     <row r="78" spans="1:1">
-      <c r="A78" s="2"/>
+      <c r="A78" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15160,17 +17328,395 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:AF43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="AG43" sqref="AG43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="4" width="7.125" customWidth="1"/>
+    <col min="5" max="10" width="8.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1">
+        <v>45354</v>
+      </c>
+      <c r="C1" s="1">
+        <v>45359</v>
+      </c>
+      <c r="D1" s="1">
+        <v>45360</v>
+      </c>
+      <c r="E1" s="1">
+        <v>45363</v>
+      </c>
+      <c r="F1" s="1">
+        <v>45364</v>
+      </c>
+      <c r="G1" s="1">
+        <v>45367</v>
+      </c>
+      <c r="H1" s="1">
+        <v>45368</v>
+      </c>
+      <c r="I1" s="1">
+        <v>45369</v>
+      </c>
+      <c r="J1" s="1">
+        <v>45370</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2">
+        <v>1000</v>
+      </c>
+      <c r="C2">
+        <v>6796</v>
+      </c>
+      <c r="D2">
+        <v>7412</v>
+      </c>
+      <c r="E2">
+        <v>10259</v>
+      </c>
+      <c r="F2">
+        <v>11229</v>
+      </c>
+      <c r="G2">
+        <v>13043</v>
+      </c>
+      <c r="H2">
+        <v>17417</v>
+      </c>
+      <c r="I2">
+        <v>24714</v>
+      </c>
+      <c r="J2">
+        <v>31792</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="7" spans="1:25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1">
+        <v>45354</v>
+      </c>
+      <c r="C7" s="1">
+        <v>45355</v>
+      </c>
+      <c r="D7" s="1">
+        <v>45356</v>
+      </c>
+      <c r="E7" s="1">
+        <v>45357</v>
+      </c>
+      <c r="F7" s="1">
+        <v>45358</v>
+      </c>
+      <c r="G7" s="1">
+        <v>45359</v>
+      </c>
+      <c r="H7" s="1">
+        <v>45360</v>
+      </c>
+      <c r="I7" s="1">
+        <v>45361</v>
+      </c>
+      <c r="J7" s="1">
+        <v>45362</v>
+      </c>
+      <c r="K7" s="1">
+        <v>45363</v>
+      </c>
+      <c r="L7" s="1">
+        <v>45364</v>
+      </c>
+      <c r="M7" s="1">
+        <v>45365</v>
+      </c>
+      <c r="N7" s="1">
+        <v>45366</v>
+      </c>
+      <c r="O7" s="1">
+        <v>45367</v>
+      </c>
+      <c r="P7" s="1">
+        <v>45368</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>45369</v>
+      </c>
+      <c r="R7" s="1">
+        <v>45370</v>
+      </c>
+      <c r="S7" s="1">
+        <v>45371</v>
+      </c>
+      <c r="T7" s="1">
+        <v>45372</v>
+      </c>
+      <c r="U7" s="1">
+        <v>45373</v>
+      </c>
+      <c r="V7" s="1">
+        <v>45374</v>
+      </c>
+      <c r="W7" s="1">
+        <v>45375</v>
+      </c>
+      <c r="X7" s="1">
+        <v>45376</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>45377</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" cm="1">
+        <f t="array" ref="B8:G8">TREND(B2:C2,B1:C1,B7:G7)</f>
+        <v>999.999999997592</v>
+      </c>
+      <c r="C8">
+        <v>2159.19999999759</v>
+      </c>
+      <c r="D8">
+        <v>3318.39999999759</v>
+      </c>
+      <c r="E8">
+        <v>4477.59999999759</v>
+      </c>
+      <c r="F8">
+        <v>5636.79999999759</v>
+      </c>
+      <c r="G8">
+        <v>6795.99999999759</v>
+      </c>
+      <c r="H8" cm="1">
+        <f t="array" ref="H8:K8">TREND(D2:E2,D1:E1,H7:K7)</f>
+        <v>7412</v>
+      </c>
+      <c r="I8">
+        <v>8361</v>
+      </c>
+      <c r="J8">
+        <v>9310</v>
+      </c>
+      <c r="K8">
+        <v>10259</v>
+      </c>
+      <c r="L8" cm="1">
+        <f t="array" ref="L8:O8">TREND(F2:G2,F1:G1,L7:O7)</f>
+        <v>11229.0000000008</v>
+      </c>
+      <c r="M8">
+        <v>11833.6666666674</v>
+      </c>
+      <c r="N8">
+        <v>12438.3333333341</v>
+      </c>
+      <c r="O8">
+        <v>13043.0000000008</v>
+      </c>
+      <c r="P8">
+        <v>17417</v>
+      </c>
+      <c r="Q8">
+        <v>24714</v>
+      </c>
+      <c r="R8">
+        <v>31792</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" cm="1">
+        <f t="array" ref="B9:Y9">TREND(B8:N8,B7:N7,B7:Y7)</f>
+        <v>1482.59340659028</v>
+      </c>
+      <c r="C9">
+        <v>2443.58424908166</v>
+      </c>
+      <c r="D9">
+        <v>3404.57509157304</v>
+      </c>
+      <c r="E9">
+        <v>4365.56593406442</v>
+      </c>
+      <c r="F9">
+        <v>5326.5567765558</v>
+      </c>
+      <c r="G9">
+        <v>6287.54761904718</v>
+      </c>
+      <c r="H9">
+        <v>7248.53846153856</v>
+      </c>
+      <c r="I9">
+        <v>8209.52930402994</v>
+      </c>
+      <c r="J9">
+        <v>9170.52014652132</v>
+      </c>
+      <c r="K9">
+        <v>10131.5109890127</v>
+      </c>
+      <c r="L9">
+        <v>11092.5018315041</v>
+      </c>
+      <c r="M9">
+        <v>12053.4926739955</v>
+      </c>
+      <c r="N9">
+        <v>13014.4835164868</v>
+      </c>
+      <c r="O9">
+        <v>13975.4743589782</v>
+      </c>
+      <c r="P9">
+        <v>14936.4652014696</v>
+      </c>
+      <c r="Q9">
+        <v>15897.456043961</v>
+      </c>
+      <c r="R9">
+        <v>16858.4468864524</v>
+      </c>
+      <c r="S9">
+        <v>17819.4377289437</v>
+      </c>
+      <c r="T9">
+        <v>18780.4285714351</v>
+      </c>
+      <c r="U9">
+        <v>19741.4194139265</v>
+      </c>
+      <c r="V9">
+        <v>20702.4102564179</v>
+      </c>
+      <c r="W9">
+        <v>21663.4010989092</v>
+      </c>
+      <c r="X9">
+        <v>22624.3919414006</v>
+      </c>
+      <c r="Y9">
+        <v>23585.382783892</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="1">
+        <v>45354</v>
+      </c>
+      <c r="C12" s="1">
+        <v>45355</v>
+      </c>
+      <c r="D12" s="1">
+        <v>45356</v>
+      </c>
+      <c r="E12" s="1">
+        <v>45357</v>
+      </c>
+      <c r="F12" s="1">
+        <v>45358</v>
+      </c>
+      <c r="G12" s="1">
+        <v>45359</v>
+      </c>
+      <c r="H12" s="1">
+        <v>45360</v>
+      </c>
+      <c r="I12" s="1">
+        <v>45361</v>
+      </c>
+      <c r="J12" s="1">
+        <v>45362</v>
+      </c>
+      <c r="K12" s="1">
+        <v>45363</v>
+      </c>
+      <c r="L12" s="1">
+        <v>45364</v>
+      </c>
+      <c r="M12" s="1">
+        <v>45365</v>
+      </c>
+      <c r="N12" s="1">
+        <v>45366</v>
+      </c>
+      <c r="O12" s="1">
+        <v>45367</v>
+      </c>
+      <c r="P12" s="1">
+        <v>45368</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>45369</v>
+      </c>
+      <c r="R12" s="1">
+        <v>45370</v>
+      </c>
+      <c r="S12" s="1">
+        <v>45371</v>
+      </c>
+      <c r="T12" s="1">
+        <v>45372</v>
+      </c>
+      <c r="U12" s="1">
+        <v>45373</v>
+      </c>
+      <c r="V12" s="1">
+        <v>45374</v>
+      </c>
+      <c r="W12" s="1">
+        <v>45375</v>
+      </c>
+      <c r="X12" s="1">
+        <v>45376</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>45377</v>
+      </c>
+    </row>
+    <row r="43" spans="32:32">
+      <c r="AF43" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/paper/数据.xlsx
+++ b/paper/数据.xlsx
@@ -4,50 +4,15 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17775" activeTab="1"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
-</file>
-
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -113,14 +78,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="177" formatCode="0.000_ "/>
+    <numFmt numFmtId="176" formatCode="0.000_ "/>
+    <numFmt numFmtId="177" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -128,6 +93,34 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -144,6 +137,14 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -183,21 +184,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -248,28 +234,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,13 +255,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,19 +321,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -350,18 +369,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -374,31 +381,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,19 +405,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,12 +429,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -481,6 +446,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -513,21 +493,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -586,148 +551,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -735,10 +700,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -747,7 +712,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
@@ -756,52 +721,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -2522,7 +2487,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -6993,8 +6958,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.162793162846164"/>
-          <c:y val="0.00405186385737439"/>
+          <c:x val="0.108114744949213"/>
+          <c:y val="0.0298507462686567"/>
           <c:w val="0.833231747714324"/>
           <c:h val="0.879119394921664"/>
         </c:manualLayout>
@@ -14573,16 +14538,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>222885</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>172085</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>458470</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>372745</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -14590,7 +14555,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="16405860" y="8401050"/>
+        <a:off x="19063335" y="5705475"/>
         <a:ext cx="3664585" cy="2867025"/>
       </xdr:xfrm>
       <a:graphic>
@@ -14603,16 +14568,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>519430</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>116205</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>614680</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>39370</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>396875</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>26035</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>415925</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>64135</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -14620,8 +14585,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="16702405" y="11431905"/>
-        <a:ext cx="3992245" cy="3681730"/>
+        <a:off x="16111855" y="8611870"/>
+        <a:ext cx="3916045" cy="3453765"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -14663,16 +14628,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>386080</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>55880</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>357505</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>8255</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>462280</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>161290</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>433705</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>113665</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -14680,7 +14645,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="16569055" y="5199380"/>
+        <a:off x="19969480" y="4808855"/>
         <a:ext cx="4191000" cy="2505710"/>
       </xdr:xfrm>
       <a:graphic>
@@ -14693,16 +14658,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>644525</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>64135</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>168910</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>539750</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>169545</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -14710,7 +14675,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="18199100" y="2121535"/>
+        <a:off x="20418425" y="2397760"/>
         <a:ext cx="3324225" cy="2505710"/>
       </xdr:xfrm>
       <a:graphic>
@@ -14723,16 +14688,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>113030</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>149225</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>84455</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>13970</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>46990</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>61595</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>18415</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -14740,7 +14705,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="21770975" y="1998980"/>
+        <a:off x="22504400" y="598805"/>
         <a:ext cx="3341370" cy="2505710"/>
       </xdr:xfrm>
       <a:graphic>
@@ -14753,16 +14718,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>218440</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>31115</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>33655</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>546100</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>121285</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>648335</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -14770,7 +14735,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="20516215" y="4660265"/>
+        <a:off x="11512550" y="6034405"/>
         <a:ext cx="3756660" cy="3347720"/>
       </xdr:xfrm>
       <a:graphic>
@@ -14783,16 +14748,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>127635</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>149225</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>458470</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>157480</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>74930</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>488315</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>5080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -14800,7 +14765,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10643235" y="13007975"/>
+        <a:off x="11659870" y="12252325"/>
         <a:ext cx="5697220" cy="4554855"/>
       </xdr:xfrm>
       <a:graphic>
@@ -14813,16 +14778,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>611505</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>23495</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>128270</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>26035</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>1905</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>121285</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -14830,7 +14795,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="11812905" y="6538595"/>
+        <a:off x="16022955" y="5443220"/>
         <a:ext cx="3710305" cy="2893060"/>
       </xdr:xfrm>
       <a:graphic>
@@ -14843,16 +14808,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>24130</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>92710</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>160655</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>610235</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>71120</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>67945</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>139065</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -14860,7 +14825,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="13768705" y="1635760"/>
+        <a:off x="16655415" y="1360805"/>
         <a:ext cx="3710305" cy="2893060"/>
       </xdr:xfrm>
       <a:graphic>
@@ -15191,8 +15156,8 @@
   <sheetPr/>
   <dimension ref="A1:R78"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="N5" workbookViewId="0">
-      <selection activeCell="AG30" sqref="AG30"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="O49" workbookViewId="0">
+      <selection activeCell="Z72" sqref="Z72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -17330,8 +17295,8 @@
   <sheetPr/>
   <dimension ref="A1:AF43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="AG43" sqref="AG43"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -17497,7 +17462,7 @@
       <c r="A8" t="s">
         <v>17</v>
       </c>
-      <c r="B8" cm="1">
+      <c r="B8">
         <f t="array" ref="B8:G8">TREND(B2:C2,B1:C1,B7:G7)</f>
         <v>999.999999997592</v>
       </c>
@@ -17516,7 +17481,7 @@
       <c r="G8">
         <v>6795.99999999759</v>
       </c>
-      <c r="H8" cm="1">
+      <c r="H8">
         <f t="array" ref="H8:K8">TREND(D2:E2,D1:E1,H7:K7)</f>
         <v>7412</v>
       </c>
@@ -17529,7 +17494,7 @@
       <c r="K8">
         <v>10259</v>
       </c>
-      <c r="L8" cm="1">
+      <c r="L8">
         <f t="array" ref="L8:O8">TREND(F2:G2,F1:G1,L7:O7)</f>
         <v>11229.0000000008</v>
       </c>
@@ -17556,7 +17521,7 @@
       <c r="A9" t="s">
         <v>17</v>
       </c>
-      <c r="B9" cm="1">
+      <c r="B9">
         <f t="array" ref="B9:Y9">TREND(B8:N8,B7:N7,B7:Y7)</f>
         <v>1482.59340659028</v>
       </c>

--- a/paper/数据.xlsx
+++ b/paper/数据.xlsx
@@ -4,14 +4,27 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowHeight="17775"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -78,14 +91,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="6">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.000_ "/>
-    <numFmt numFmtId="177" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="177" formatCode="0.000_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -93,34 +106,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -137,14 +122,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -184,6 +161,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -234,7 +226,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,55 +268,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,31 +292,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -369,6 +328,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -381,7 +352,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,7 +400,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,6 +436,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -446,21 +459,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -493,6 +491,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,148 +564,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -700,10 +713,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -712,7 +725,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
@@ -721,52 +734,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1420,373 +1433,6 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>签名者初始化</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$N$2:$R$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$N$4:$R$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>5.772319</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>17.1500838</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>25.0809082</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>34.6975738</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>45.1489088</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="153697720"/>
-        <c:axId val="970987288"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="153697720"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr defTabSz="914400">
-                  <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr altLang="en-US"/>
-                  <a:t>签名者数量</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
-                  <a:t>(t)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" altLang="zh-CN"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.406047785423754"/>
-              <c:y val="0.889115764820192"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="970987288"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="970987288"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr defTabSz="914400">
-                  <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr altLang="en-US"/>
-                  <a:t>耗时</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
-                  <a:t>(s)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" altLang="zh-CN"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.0183147693044842"/>
-              <c:y val="0.309754675504474"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="#,##0.00_);[Red]\(#,##0.00\)" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="153697720"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr lang="zh-CN"/>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:externalData r:id="rId1">
-    <c:autoUpdate val="0"/>
-  </c:externalData>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.171227134146341"/>
-          <c:y val="0.0709822544363909"/>
-          <c:w val="0.670236280487805"/>
-          <c:h val="0.722669332666833"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
               <c:f>"接收者初始化"</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -2118,7 +1764,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -2473,7 +2119,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -6958,230 +6604,105 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.108114744949213"/>
-          <c:y val="0.0298507462686567"/>
-          <c:w val="0.833231747714324"/>
-          <c:h val="0.879119394921664"/>
+          <c:x val="0.171227134146341"/>
+          <c:y val="0.0709822544363909"/>
+          <c:w val="0.670236280487805"/>
+          <c:h val="0.722669332666833"/>
         </c:manualLayout>
       </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$2</c:f>
+              <c:f>Sheet1!$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TB-ECDSA</c:v>
+                  <c:v>签名者初始化</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:dLbls>
             <c:delete val="1"/>
           </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$N$2:$R$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$D$18,Sheet1!$D$26)</c:f>
+              <c:f>Sheet1!$N$4:$R$4</c:f>
               <c:numCache>
-                <c:formatCode>0.000_ </c:formatCode>
-                <c:ptCount val="2"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.68924</c:v>
+                  <c:v>5.772319</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>148.57476</c:v>
+                  <c:v>17.1500838</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.0809082</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.6975738</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45.1489088</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$31</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>GG18-ECDSA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>(Sheet1!$D$39,Sheet1!$D$47)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>6551.0288</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1691.6166</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$50</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>GG18-EDDSA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>(Sheet1!$D$58,Sheet1!$D$66)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>648.8204</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>237.048</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$69</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>CMP-ECDSA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>(Sheet1!$D$70,Sheet1!$D$71)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>8948.783</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7098.473</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$75</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FROST</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>(Sheet1!$D$76,Sheet1!$D$77)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>11.226</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.317</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -7191,29 +6712,74 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="246"/>
-        <c:overlap val="-28"/>
-        <c:axId val="677774295"/>
-        <c:axId val="67979115"/>
-      </c:barChart>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="153697720"/>
+        <c:axId val="970987288"/>
+      </c:lineChart>
       <c:catAx>
-        <c:axId val="677774295"/>
+        <c:axId val="153697720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr altLang="en-US"/>
+                  <a:t>签名者数量</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>(t)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.406047785423754"/>
+              <c:y val="0.889115764820192"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -7238,7 +6804,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67979115"/>
+        <c:crossAx val="970987288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7246,9 +6812,8 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67979115"/>
+        <c:axId val="970987288"/>
         <c:scaling>
-          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -7256,25 +6821,69 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="90200"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.000_ " sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="out"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr altLang="en-US"/>
+                  <a:t>耗时</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>(s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.0183147693044842"/>
+              <c:y val="0.309754675504474"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.00_);[Red]\(#,##0.00\)" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="3175">
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
           </a:ln>
           <a:effectLst/>
@@ -7298,49 +6907,20 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="677774295"/>
+        <c:crossAx val="153697720"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -7350,18 +6930,13 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
   <c:txPr>
-    <a:bodyPr anchor="t" anchorCtr="0"/>
+    <a:bodyPr/>
     <a:lstStyle/>
     <a:p>
       <a:pPr>
@@ -7369,11 +6944,9 @@
       </a:pPr>
     </a:p>
   </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
+  <c:externalData r:id="rId1">
+    <c:autoUpdate val="0"/>
+  </c:externalData>
 </c:chartSpace>
 </file>
 
@@ -7498,46 +7071,6 @@
 </file>
 
 <file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -8908,511 +8441,6 @@
 </file>
 
 <file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="10028">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-      <a:effectLst/>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="90200"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="1" kern="1200" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="10001">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9922,7 +8950,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="10190">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -13995,7 +13023,7 @@
 </file>
 
 <file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="10001">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="10028">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -14095,22 +13123,14 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
+    <cs:lnRef idx="0"/>
     <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-      <a:effectLst/>
-    </cs:spPr>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -14126,10 +13146,12 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="28575" cap="rnd">
@@ -14138,6 +13160,7 @@
         </a:solidFill>
         <a:round/>
       </a:ln>
+      <a:effectLst/>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
@@ -14748,36 +13771,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>458470</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>488315</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>5080</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="图表 8"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="11659870" y="12252325"/>
-        <a:ext cx="5697220" cy="4554855"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>525780</xdr:colOff>
       <xdr:row>31</xdr:row>
@@ -14800,7 +13793,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -14830,7 +13823,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -15156,8 +14149,8 @@
   <sheetPr/>
   <dimension ref="A1:R78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="O49" workbookViewId="0">
-      <selection activeCell="Z72" sqref="Z72"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F77" sqref="F77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/paper/数据.xlsx
+++ b/paper/数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14445" windowHeight="17775" firstSheet="2"/>
+    <workbookView windowHeight="17775" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19943,6 +19943,24 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>31792</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>31792</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>31792</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>33211</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>34630</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>36049</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>37246</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -44651,8 +44669,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="12769850" y="2794000"/>
-        <a:ext cx="4206875" cy="3580765"/>
+        <a:off x="18065750" y="2794000"/>
+        <a:ext cx="5778500" cy="3580765"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -44681,8 +44699,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4264025" y="3917950"/>
-        <a:ext cx="6843395" cy="4352925"/>
+        <a:off x="6130925" y="3917950"/>
+        <a:ext cx="9719945" cy="4352925"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -44949,7 +44967,7 @@
   </sheetPr>
   <dimension ref="A1:R78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
@@ -49312,17 +49330,21 @@
   <sheetPr/>
   <dimension ref="A1:AF43"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="W64" sqref="W64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="4" width="7.125" customWidth="1"/>
-    <col min="5" max="10" width="8.125" customWidth="1"/>
+    <col min="2" max="2" width="7.125" customWidth="1"/>
+    <col min="3" max="15" width="12.625" customWidth="1"/>
+    <col min="16" max="16" width="11.5" customWidth="1"/>
+    <col min="17" max="22" width="12.625" customWidth="1"/>
+    <col min="23" max="23" width="11.5" customWidth="1"/>
+    <col min="24" max="25" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:10">
+    <row r="1" s="1" customFormat="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
@@ -49353,8 +49375,20 @@
       <c r="J1" s="1">
         <v>45370</v>
       </c>
+      <c r="K1" s="1">
+        <v>45371</v>
+      </c>
+      <c r="L1" s="1">
+        <v>45372</v>
+      </c>
+      <c r="M1" s="1">
+        <v>45375</v>
+      </c>
+      <c r="N1" s="1">
+        <v>45376</v>
+      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -49384,6 +49418,18 @@
       </c>
       <c r="J2">
         <v>31792</v>
+      </c>
+      <c r="K2">
+        <v>31792</v>
+      </c>
+      <c r="L2">
+        <v>31792</v>
+      </c>
+      <c r="M2">
+        <v>36049</v>
+      </c>
+      <c r="N2">
+        <v>37246</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -49475,7 +49521,7 @@
         <v>45377</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:24">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -49532,6 +49578,25 @@
       </c>
       <c r="R8">
         <v>31792</v>
+      </c>
+      <c r="S8">
+        <v>31792</v>
+      </c>
+      <c r="T8">
+        <v>31792</v>
+      </c>
+      <c r="U8" cm="1">
+        <f t="array" ref="U8:V8">TREND(L2:M2,L1:M1,U7:V7)</f>
+        <v>33211</v>
+      </c>
+      <c r="V8">
+        <v>34630</v>
+      </c>
+      <c r="W8">
+        <v>36049</v>
+      </c>
+      <c r="X8">
+        <v>37246</v>
       </c>
     </row>
     <row r="9" spans="1:25">
